--- a/biology/Botanique/Mademoiselle_Honorine_Duboc/Mademoiselle_Honorine_Duboc.xlsx
+++ b/biology/Botanique/Mademoiselle_Honorine_Duboc/Mademoiselle_Honorine_Duboc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mademoiselle Honorine Duboc' est un cultivar de rosier obtenu en 1894 par le rosiériste rouennais Charles Duboc[1]. Il doit son nom à la fille de l'obtenteur[2].
+'Mademoiselle Honorine Duboc' est un cultivar de rosier obtenu en 1894 par le rosiériste rouennais Charles Duboc. Il doit son nom à la fille de l'obtenteur.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride remontant[3] montre de grandes fleurs rose vif doubles et bien pleines[4]. Elles éclosent en forme de choux bien ronds et s'épanouissent en coupes délicatement ourlées (17-25 pétales). L'arbuste vigoureux possède un beau feuillage vert brun[5].
-La floraison est très remontante. Sa zone de rusticité est de 6b à 9b, donc ce cultivar résiste à −20 °C. On peut admirer 'Mademoiselle Honorine Duboc' notamment à la roseraie des roses de Normandie[6] et à l'Europa-Rosarium de Sangerhausen[7] en Allemagne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride remontant montre de grandes fleurs rose vif doubles et bien pleines. Elles éclosent en forme de choux bien ronds et s'épanouissent en coupes délicatement ourlées (17-25 pétales). L'arbuste vigoureux possède un beau feuillage vert brun.
+La floraison est très remontante. Sa zone de rusticité est de 6b à 9b, donc ce cultivar résiste à −20 °C. On peut admirer 'Mademoiselle Honorine Duboc' notamment à la roseraie des roses de Normandie et à l'Europa-Rosarium de Sangerhausen en Allemagne.
 Cette variété est encore commercialisée dans quelques catalogues français, anglais ou italiens.
 </t>
         </is>
